--- a/formato_co.xlsx
+++ b/formato_co.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="4395" windowWidth="19680" windowHeight="4335"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="19590" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">REFINERIA "GRAL. LAZARO CARDENAS" </t>
   </si>
@@ -51,18 +51,9 @@
     <t>Supervisor Fase Instrumentos</t>
   </si>
   <si>
-    <t>Fecha De Inicio</t>
-  </si>
-  <si>
-    <t>Fecha de Termino</t>
-  </si>
-  <si>
     <t>Plazo De Ejecucion</t>
   </si>
   <si>
-    <t>Monto Contratado Multianual</t>
-  </si>
-  <si>
     <t>Monto Contratado</t>
   </si>
   <si>
@@ -153,17 +144,29 @@
     <t>Avance Financiero</t>
   </si>
   <si>
-    <t>Recepcion Fisica</t>
-  </si>
-  <si>
     <t>Finiquito</t>
+  </si>
+  <si>
+    <t>Recepción Fisica</t>
+  </si>
+  <si>
+    <t>Fecha De Inicio Contractual</t>
+  </si>
+  <si>
+    <t>Fecha de Termino Contractual</t>
+  </si>
+  <si>
+    <t>Fecha de Inicio Real</t>
+  </si>
+  <si>
+    <t>Fecha de Termino Real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +190,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,34 +217,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -246,35 +241,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -290,6 +341,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2264611" cy="1152525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2264611" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2264611" cy="1152525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="28575"/>
+          <a:ext cx="2264611" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,29 +701,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -641,15 +770,16 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
     </row>
-    <row r="2" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -689,15 +819,16 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:44" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -737,13 +868,14 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -783,148 +915,154 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:44" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:45" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="AE5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
